--- a/dice_export_global_cybersecurity_index.xlsx
+++ b/dice_export_global_cybersecurity_index.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F25F731-E585-B24C-9E39-EFFA5D6F8309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="16740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24860" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sources" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>Location</t>
   </si>
@@ -650,14 +656,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,162 +669,11 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,194 +698,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1044,313 +707,30 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1608,45 +988,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.8660714285714" customWidth="1"/>
-    <col min="2" max="3" width="15.7232142857143" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1654,10 +1035,10 @@
         <v>126</v>
       </c>
       <c r="C3">
-        <v>0.177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1665,10 +1046,10 @@
         <v>62</v>
       </c>
       <c r="C4">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1676,10 +1057,10 @@
         <v>108</v>
       </c>
       <c r="C5">
-        <v>0.262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1690,7 +1071,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1698,10 +1079,10 @@
         <v>148</v>
       </c>
       <c r="C7">
-        <v>0.097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1712,7 +1093,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1720,10 +1101,10 @@
         <v>94</v>
       </c>
       <c r="C9">
-        <v>0.407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.40699999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1734,7 +1115,7 @@
         <v>0.495</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1745,7 +1126,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1753,10 +1134,10 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <v>0.826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1764,10 +1145,10 @@
         <v>55</v>
       </c>
       <c r="C13">
-        <v>0.653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1775,10 +1156,10 @@
         <v>133</v>
       </c>
       <c r="C14">
-        <v>0.147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1786,10 +1167,10 @@
         <v>68</v>
       </c>
       <c r="C15">
-        <v>0.585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1797,10 +1178,10 @@
         <v>78</v>
       </c>
       <c r="C16">
-        <v>0.525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1808,10 +1189,10 @@
         <v>127</v>
       </c>
       <c r="C17">
-        <v>0.173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1819,10 +1200,10 @@
         <v>69</v>
       </c>
       <c r="C18">
-        <v>0.578</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1830,10 +1211,10 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>0.814</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1844,7 +1225,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1852,10 +1233,10 @@
         <v>80</v>
       </c>
       <c r="C21">
-        <v>0.485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1863,10 +1244,10 @@
         <v>125</v>
       </c>
       <c r="C22">
-        <v>0.181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1874,10 +1255,10 @@
         <v>135</v>
       </c>
       <c r="C23">
-        <v>0.139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1885,10 +1266,10 @@
         <v>118</v>
       </c>
       <c r="C24">
-        <v>0.204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1899,7 +1280,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1907,10 +1288,10 @@
         <v>70</v>
       </c>
       <c r="C26">
-        <v>0.577</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1921,7 +1302,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1929,10 +1310,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>0.721</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1943,7 +1324,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1951,10 +1332,10 @@
         <v>151</v>
       </c>
       <c r="C30">
-        <v>0.087</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1965,7 +1346,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1976,7 +1357,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1984,10 +1365,10 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>0.892</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1995,10 +1376,10 @@
         <v>163</v>
       </c>
       <c r="C34">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2006,10 +1387,10 @@
         <v>167</v>
       </c>
       <c r="C35">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2017,10 +1398,10 @@
         <v>147</v>
       </c>
       <c r="C36">
-        <v>0.098</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2031,7 +1412,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2039,10 +1420,10 @@
         <v>27</v>
       </c>
       <c r="C38">
-        <v>0.828</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2050,10 +1431,10 @@
         <v>73</v>
       </c>
       <c r="C39">
-        <v>0.565</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2061,10 +1442,10 @@
         <v>173</v>
       </c>
       <c r="C40">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2072,10 +1453,10 @@
         <v>130</v>
       </c>
       <c r="C41">
-        <v>0.167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2086,7 +1467,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2097,7 +1478,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2105,10 +1486,10 @@
         <v>81</v>
       </c>
       <c r="C44">
-        <v>0.481</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2116,10 +1497,10 @@
         <v>56</v>
       </c>
       <c r="C45">
-        <v>0.652</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2127,10 +1508,10 @@
         <v>71</v>
       </c>
       <c r="C46">
-        <v>0.569</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2138,10 +1519,10 @@
         <v>174</v>
       </c>
       <c r="C47">
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2149,10 +1530,10 @@
         <v>21</v>
       </c>
       <c r="C48">
-        <v>0.852</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2160,10 +1541,10 @@
         <v>159</v>
       </c>
       <c r="C49">
-        <v>0.063</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2174,7 +1555,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2182,10 +1563,10 @@
         <v>98</v>
       </c>
       <c r="C51">
-        <v>0.367</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2193,10 +1574,10 @@
         <v>23</v>
       </c>
       <c r="C52">
-        <v>0.842</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2207,7 +1588,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2215,10 +1596,10 @@
         <v>168</v>
       </c>
       <c r="C54">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2229,7 +1610,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2237,10 +1618,10 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>0.905</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2248,10 +1629,10 @@
         <v>105</v>
       </c>
       <c r="C57">
-        <v>0.278</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2259,10 +1640,10 @@
         <v>121</v>
       </c>
       <c r="C58">
-        <v>0.194</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2270,10 +1651,10 @@
         <v>19</v>
       </c>
       <c r="C59">
-        <v>0.856</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2281,10 +1662,10 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>0.918</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2295,7 +1676,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2303,10 +1684,10 @@
         <v>104</v>
       </c>
       <c r="C62">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2314,10 +1695,10 @@
         <v>18</v>
       </c>
       <c r="C63">
-        <v>0.857</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2325,10 +1706,10 @@
         <v>22</v>
       </c>
       <c r="C64">
-        <v>0.849</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2339,7 +1720,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2347,10 +1728,10 @@
         <v>77</v>
       </c>
       <c r="C66">
-        <v>0.527</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2358,10 +1739,10 @@
         <v>134</v>
       </c>
       <c r="C67">
-        <v>0.143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2372,7 +1753,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2383,7 +1764,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2391,10 +1772,10 @@
         <v>162</v>
       </c>
       <c r="C70">
-        <v>0.055</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -2402,10 +1783,10 @@
         <v>138</v>
       </c>
       <c r="C71">
-        <v>0.132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2413,10 +1794,10 @@
         <v>164</v>
       </c>
       <c r="C72">
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2424,10 +1805,10 @@
         <v>165</v>
       </c>
       <c r="C73">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2435,10 +1816,10 @@
         <v>31</v>
       </c>
       <c r="C74">
-        <v>0.812</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2446,10 +1827,10 @@
         <v>87</v>
       </c>
       <c r="C75">
-        <v>0.449</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2457,10 +1838,10 @@
         <v>47</v>
       </c>
       <c r="C76">
-        <v>0.719</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2468,10 +1849,10 @@
         <v>41</v>
       </c>
       <c r="C77">
-        <v>0.776</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2479,10 +1860,10 @@
         <v>60</v>
       </c>
       <c r="C78">
-        <v>0.641</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2490,10 +1871,10 @@
         <v>107</v>
       </c>
       <c r="C79">
-        <v>0.263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2501,10 +1882,10 @@
         <v>38</v>
       </c>
       <c r="C80">
-        <v>0.784</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2512,10 +1893,10 @@
         <v>39</v>
       </c>
       <c r="C81">
-        <v>0.783</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2523,10 +1904,10 @@
         <v>25</v>
       </c>
       <c r="C82">
-        <v>0.837</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2534,10 +1915,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>0.456</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2545,10 +1926,10 @@
         <v>94</v>
       </c>
       <c r="C84">
-        <v>0.407</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.40699999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2559,7 +1940,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2567,10 +1948,10 @@
         <v>74</v>
       </c>
       <c r="C86">
-        <v>0.556</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2578,10 +1959,10 @@
         <v>40</v>
       </c>
       <c r="C87">
-        <v>0.778</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2592,7 +1973,7 @@
         <v>0.748</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2600,10 +1981,10 @@
         <v>169</v>
       </c>
       <c r="C89">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2614,7 +1995,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2625,7 +2006,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2636,7 +2017,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2647,7 +2028,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2655,10 +2036,10 @@
         <v>120</v>
       </c>
       <c r="C94">
-        <v>0.195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2669,7 +2050,7 @@
         <v>0.748</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2680,7 +2061,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2688,10 +2069,10 @@
         <v>163</v>
       </c>
       <c r="C97">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -2699,10 +2080,10 @@
         <v>117</v>
       </c>
       <c r="C98">
-        <v>0.206</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2710,10 +2091,10 @@
         <v>117</v>
       </c>
       <c r="C99">
-        <v>0.206</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2721,10 +2102,10 @@
         <v>75</v>
       </c>
       <c r="C100">
-        <v>0.543</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2732,10 +2113,10 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>0.908</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2743,10 +2124,10 @@
         <v>11</v>
       </c>
       <c r="C102">
-        <v>0.889</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -2757,7 +2138,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -2765,10 +2146,10 @@
         <v>119</v>
       </c>
       <c r="C104">
-        <v>0.196</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -2776,10 +2157,10 @@
         <v>106</v>
       </c>
       <c r="C105">
-        <v>0.275</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -2787,10 +2168,10 @@
         <v>8</v>
       </c>
       <c r="C106">
-        <v>0.893</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -2798,10 +2179,10 @@
         <v>175</v>
       </c>
       <c r="C107">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -2809,10 +2190,10 @@
         <v>152</v>
       </c>
       <c r="C108">
-        <v>0.085</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -2820,10 +2201,10 @@
         <v>82</v>
       </c>
       <c r="C109">
-        <v>0.479</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -2831,10 +2212,10 @@
         <v>155</v>
       </c>
       <c r="C110">
-        <v>0.072</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -2845,7 +2226,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -2856,7 +2237,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -2867,7 +2248,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -2878,7 +2259,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -2886,10 +2267,10 @@
         <v>53</v>
       </c>
       <c r="C115">
-        <v>0.662</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -2900,7 +2281,7 @@
         <v>0.751</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -2908,10 +2289,10 @@
         <v>85</v>
       </c>
       <c r="C117">
-        <v>0.465</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -2919,10 +2300,10 @@
         <v>61</v>
       </c>
       <c r="C118">
-        <v>0.639</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -2930,10 +2311,10 @@
         <v>93</v>
       </c>
       <c r="C119">
-        <v>0.429</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -2944,7 +2325,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -2952,10 +2333,10 @@
         <v>128</v>
       </c>
       <c r="C121">
-        <v>0.172</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -2966,7 +2347,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -2974,10 +2355,10 @@
         <v>146</v>
       </c>
       <c r="C123">
-        <v>0.101</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -2988,7 +2369,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -2996,10 +2377,10 @@
         <v>12</v>
       </c>
       <c r="C125">
-        <v>0.885</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -3007,10 +2388,10 @@
         <v>36</v>
       </c>
       <c r="C126">
-        <v>0.789</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -3021,7 +2402,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -3032,7 +2413,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -3040,10 +2421,10 @@
         <v>9</v>
       </c>
       <c r="C129">
-        <v>0.892</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -3051,10 +2432,10 @@
         <v>16</v>
       </c>
       <c r="C130">
-        <v>0.868</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -3062,10 +2443,10 @@
         <v>94</v>
       </c>
       <c r="C131">
-        <v>0.407</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>0.40699999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -3076,7 +2457,7 @@
         <v>0.307</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -3084,10 +2465,10 @@
         <v>97</v>
       </c>
       <c r="C133">
-        <v>0.369</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -3095,10 +2476,10 @@
         <v>139</v>
       </c>
       <c r="C134">
-        <v>0.131</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -3106,10 +2487,10 @@
         <v>66</v>
       </c>
       <c r="C135">
-        <v>0.603</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -3117,10 +2498,10 @@
         <v>95</v>
       </c>
       <c r="C136">
-        <v>0.401</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -3128,10 +2509,10 @@
         <v>58</v>
       </c>
       <c r="C137">
-        <v>0.643</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -3139,10 +2520,10 @@
         <v>19</v>
       </c>
       <c r="C138">
-        <v>0.815</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -3150,10 +2531,10 @@
         <v>42</v>
       </c>
       <c r="C139">
-        <v>0.758</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -3164,7 +2545,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -3172,10 +2553,10 @@
         <v>72</v>
       </c>
       <c r="C141">
-        <v>0.568</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -3183,10 +2564,10 @@
         <v>26</v>
       </c>
       <c r="C142">
-        <v>0.836</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -3194,10 +2575,10 @@
         <v>49</v>
       </c>
       <c r="C143">
-        <v>0.697</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -3205,10 +2586,10 @@
         <v>98</v>
       </c>
       <c r="C144">
-        <v>0.367</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -3216,10 +2597,10 @@
         <v>154</v>
       </c>
       <c r="C145">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -3227,10 +2608,10 @@
         <v>158</v>
       </c>
       <c r="C146">
-        <v>0.064</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -3238,10 +2619,10 @@
         <v>13</v>
       </c>
       <c r="C147">
-        <v>0.881</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -3249,10 +2630,10 @@
         <v>102</v>
       </c>
       <c r="C148">
-        <v>0.305</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -3260,10 +2641,10 @@
         <v>58</v>
       </c>
       <c r="C149">
-        <v>0.643</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -3271,10 +2652,10 @@
         <v>110</v>
       </c>
       <c r="C150">
-        <v>0.259</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -3282,10 +2663,10 @@
         <v>136</v>
       </c>
       <c r="C151">
-        <v>0.138</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -3293,10 +2674,10 @@
         <v>6</v>
       </c>
       <c r="C152">
-        <v>0.898</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -3304,10 +2685,10 @@
         <v>45</v>
       </c>
       <c r="C153">
-        <v>0.729</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -3315,10 +2696,10 @@
         <v>48</v>
       </c>
       <c r="C154">
-        <v>0.701</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -3326,10 +2707,10 @@
         <v>160</v>
       </c>
       <c r="C155">
-        <v>0.061</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -3337,10 +2718,10 @@
         <v>156</v>
       </c>
       <c r="C156">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -3348,10 +2729,10 @@
         <v>56</v>
       </c>
       <c r="C157">
-        <v>0.652</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -3359,10 +2740,10 @@
         <v>157</v>
       </c>
       <c r="C158">
-        <v>0.065</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -3370,10 +2751,10 @@
         <v>7</v>
       </c>
       <c r="C159">
-        <v>0.896</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -3381,10 +2762,10 @@
         <v>84</v>
       </c>
       <c r="C160">
-        <v>0.466</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -3392,10 +2773,10 @@
         <v>157</v>
       </c>
       <c r="C161">
-        <v>0.065</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -3403,10 +2784,10 @@
         <v>149</v>
       </c>
       <c r="C162">
-        <v>0.096</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -3414,10 +2795,10 @@
         <v>129</v>
       </c>
       <c r="C163">
-        <v>0.169</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -3425,10 +2806,10 @@
         <v>103</v>
       </c>
       <c r="C164">
-        <v>0.294</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -3439,7 +2820,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -3447,10 +2828,10 @@
         <v>137</v>
       </c>
       <c r="C166">
-        <v>0.133</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -3461,7 +2842,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -3469,10 +2850,10 @@
         <v>37</v>
       </c>
       <c r="C168">
-        <v>0.788</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -3480,10 +2861,10 @@
         <v>114</v>
       </c>
       <c r="C169">
-        <v>0.237</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -3491,10 +2872,10 @@
         <v>107</v>
       </c>
       <c r="C170">
-        <v>0.263</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -3502,10 +2883,10 @@
         <v>59</v>
       </c>
       <c r="C171">
-        <v>0.642</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -3513,10 +2894,10 @@
         <v>35</v>
       </c>
       <c r="C172">
-        <v>0.796</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -3524,10 +2905,10 @@
         <v>153</v>
       </c>
       <c r="C173">
-        <v>0.082</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -3535,10 +2916,10 @@
         <v>151</v>
       </c>
       <c r="C174">
-        <v>0.087</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -3546,10 +2927,10 @@
         <v>116</v>
       </c>
       <c r="C175">
-        <v>0.208</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -3560,7 +2941,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -3568,10 +2949,10 @@
         <v>76</v>
       </c>
       <c r="C177">
-        <v>0.536</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -3579,10 +2960,10 @@
         <v>20</v>
       </c>
       <c r="C178">
-        <v>0.853</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -3593,7 +2974,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -3601,10 +2982,10 @@
         <v>161</v>
       </c>
       <c r="C180">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -3615,7 +2996,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -3623,10 +3004,10 @@
         <v>54</v>
       </c>
       <c r="C182">
-        <v>0.661</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>0.66100000000000003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -3634,10 +3015,10 @@
         <v>33</v>
       </c>
       <c r="C183">
-        <v>0.807</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -3645,10 +3026,10 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>0.931</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -3656,10 +3037,10 @@
         <v>2</v>
       </c>
       <c r="C185">
-        <v>0.926</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -3667,10 +3048,10 @@
         <v>51</v>
       </c>
       <c r="C186">
-        <v>0.681</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -3678,10 +3059,10 @@
         <v>52</v>
       </c>
       <c r="C187">
-        <v>0.666</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -3689,10 +3070,10 @@
         <v>147</v>
       </c>
       <c r="C188">
-        <v>0.098</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -3700,10 +3081,10 @@
         <v>170</v>
       </c>
       <c r="C189">
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -3711,10 +3092,10 @@
         <v>99</v>
       </c>
       <c r="C190">
-        <v>0.354</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -3722,10 +3103,10 @@
         <v>50</v>
       </c>
       <c r="C191">
-        <v>0.693</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -3733,10 +3114,10 @@
         <v>172</v>
       </c>
       <c r="C192">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -3747,7 +3128,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -3759,64 +3140,67 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.2946428571429" customWidth="1"/>
-    <col min="2" max="2" width="32.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="9.71428571428571" customWidth="1"/>
-    <col min="5" max="5" width="69.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="10.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="11.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="69.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -3840,7 +3224,6 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>